--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\TkTrackVisualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A420696-B743-40F0-8669-83116507402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14CA2E2-8482-4FD6-8646-20983187DDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,11 +395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C6:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +448,820 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
